--- a/PrintIngredientsList/bin/Debug/Database/商品.xlsx
+++ b/PrintIngredientsList/bin/Debug/Database/商品.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\桑原さんソフト\GitHub\成分表印刷\PrintIngredientsList\PrintIngredientsList\bin\Debug\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\桑原さんソフト\GitHub\成分表印刷\資料\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53190F1-DBC2-43AD-BA30-4788E3F6CDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3B3E04-1CD5-48A4-87F3-7D760AC5E88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="20385" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5610" yWindow="2325" windowWidth="20385" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品データ" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
   <si>
     <t>分類</t>
   </si>
@@ -33,17 +33,7 @@
     <t>名称</t>
   </si>
   <si>
-    <t>原材料名</t>
-  </si>
-  <si>
     <t>内容量</t>
-  </si>
-  <si>
-    <t>賞味期限(日）</t>
-    <rPh sb="5" eb="6">
-      <t>ヒヒ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>保存方法</t>
@@ -254,41 +244,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>本社AAA</t>
-    <rPh sb="0" eb="2">
-      <t>ホンシャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>本社BBB</t>
-    <rPh sb="0" eb="2">
-      <t>ホンシャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>本社CCC</t>
-    <rPh sb="0" eb="2">
-      <t>ホンシャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>本社DDD</t>
-    <rPh sb="0" eb="2">
-      <t>ホンシャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>本社EEE</t>
-    <rPh sb="0" eb="2">
-      <t>ホンシャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>※塩麹のお米は自然栽培です。
 ※粉末昆布は北海道産の天然利尻昆布の粉末を使用しています。</t>
     <phoneticPr fontId="2"/>
@@ -311,6 +266,14 @@
   </si>
   <si>
     <t>※EEEEEEEEEEEEEEEEEEEEEEEEE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>賞味期限</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>原材料</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -322,6 +285,12 @@
   </si>
   <si>
     <t>第２工房</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウボウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -671,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056D1AAA-C8E0-45CB-9771-31698DB73B58}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -694,257 +663,257 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="93.75">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="E2" s="1">
         <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="100.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E3" s="1">
         <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="75">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="E4" s="1">
         <v>30</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="37.5">
       <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E5" s="1">
         <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1">
         <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1">
         <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1">
         <v>60</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1">
         <v>90</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/PrintIngredientsList/bin/Debug/Database/商品.xlsx
+++ b/PrintIngredientsList/bin/Debug/Database/商品.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\桑原さんソフト\GitHub\成分表印刷\資料\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\桑原さんソフト\GitHub\成分表印刷\PrintIngredientsList\PrintIngredientsList\bin\Debug\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3B3E04-1CD5-48A4-87F3-7D760AC5E88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25322087-7EE2-4D61-B8C6-A086374C2E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5610" yWindow="2325" windowWidth="20385" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5610" yWindow="2325" windowWidth="23070" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品データ" sheetId="2" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ココナッツスティック</t>
-  </si>
-  <si>
     <t>玄米（福岡県産）、有機メープルシロップ、有機ココナッツオイル、有機ココナッツファイン、有機片栗粉、有機ココナッツフラワー、高きび、きび糖、食塩</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -291,6 +288,10 @@
     <rPh sb="2" eb="4">
       <t>コウボウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ココナッツスティック</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -640,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056D1AAA-C8E0-45CB-9771-31698DB73B58}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -663,13 +664,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -689,28 +690,28 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="E2" s="1">
         <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="100.5" customHeight="1">
@@ -718,28 +719,28 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="E3" s="1">
         <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="75">
@@ -747,173 +748,173 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="E4" s="1">
         <v>30</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="37.5">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="E5" s="1">
         <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="1">
         <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="1">
         <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1">
         <v>60</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1">
         <v>90</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/PrintIngredientsList/bin/Debug/Database/商品.xlsx
+++ b/PrintIngredientsList/bin/Debug/Database/商品.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\桑原さんソフト\GitHub\成分表印刷\PrintIngredientsList\PrintIngredientsList\bin\Debug\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25322087-7EE2-4D61-B8C6-A086374C2E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAEEC80-8A64-4F30-A553-61BCC6834127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5610" yWindow="2325" windowWidth="23070" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="1125" windowWidth="26100" windowHeight="15795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品データ" sheetId="2" r:id="rId1"/>
@@ -56,10 +56,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>玄米（福岡県産）、有機メープルシロップ、有機ココナッツオイル、有機ココナッツファイン、有機片栗粉、有機ココナッツフラワー、高きび、きび糖、食塩</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>3本</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -292,6 +288,10 @@
   </si>
   <si>
     <t>ココナッツスティック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米（福岡県産）、有機メープルシロップ、有機ココナッツオイル、有機ココナッツファイン、有機片栗粉、有機ココナッツフラワー、高きび、きび糖、食塩, bbb</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -642,7 +642,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -664,13 +664,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -690,28 +690,28 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="E2" s="1">
         <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="100.5" customHeight="1">
@@ -719,28 +719,28 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E3" s="1">
         <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="75">
@@ -748,173 +748,173 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E4" s="1">
         <v>30</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="37.5">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E5" s="1">
         <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1">
         <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1">
         <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="1">
         <v>60</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1">
         <v>90</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/PrintIngredientsList/bin/Debug/Database/商品.xlsx
+++ b/PrintIngredientsList/bin/Debug/Database/商品.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\桑原さんソフト\GitHub\成分表印刷\PrintIngredientsList\PrintIngredientsList\bin\Debug\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAEEC80-8A64-4F30-A553-61BCC6834127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B750EB5C-1522-4555-8670-D203A7FF122D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="1125" windowWidth="26100" windowHeight="15795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="1050" windowWidth="26100" windowHeight="16350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品データ" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
   <si>
     <t>分類</t>
   </si>
@@ -53,6 +53,10 @@
     <rPh sb="0" eb="3">
       <t>ヤキガシ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米（福岡県産）、有機メープルシロップ、有機ココナッツオイル、有機ココナッツファイン、有機片栗粉、有機ココナッツフラワー、高きび、きび糖、食塩</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -287,11 +291,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ココナッツスティック</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>玄米（福岡県産）、有機メープルシロップ、有機ココナッツオイル、有機ココナッツファイン、有機片栗粉、有機ココナッツフラワー、高きび、きび糖、食塩, bbb</t>
+    <t>ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ココナッツスティックｄｆｄｆｆ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -323,7 +327,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,6 +337,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -359,6 +369,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -639,7 +655,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056D1AAA-C8E0-45CB-9771-31698DB73B58}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -647,274 +663,302 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="26.625" customWidth="1"/>
-    <col min="3" max="3" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="23.125" customWidth="1"/>
-    <col min="9" max="9" width="58" customWidth="1"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
+    <col min="4" max="4" width="33.375" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="23.125" customWidth="1"/>
+    <col min="10" max="10" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="93.75">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" ht="93.75">
+      <c r="A2" s="6">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1">
         <v>30</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>50</v>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>11</v>
+        <v>51</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="100.5" customHeight="1">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:10" ht="100.5" customHeight="1">
+      <c r="A3" s="6">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1">
         <v>30</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>50</v>
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="75">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:10" ht="75">
+      <c r="A4" s="6">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1">
-        <v>30</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="37.5">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
+    <row r="5" spans="1:10" ht="37.5">
+      <c r="A5" s="6">
+        <v>2001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1">
         <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>51</v>
+      <c r="H5" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
+    <row r="6" spans="1:10">
+      <c r="A6" s="6">
+        <v>2002</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="6">
+        <v>2003</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="1">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="6">
+        <v>3001</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1">
+        <v>60</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="6">
+        <v>3002</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="1">
-        <v>15</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="1">
-        <v>20</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="1">
-        <v>60</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>90</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/PrintIngredientsList/bin/Debug/Database/商品.xlsx
+++ b/PrintIngredientsList/bin/Debug/Database/商品.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\桑原さんソフト\GitHub\成分表印刷\PrintIngredientsList\PrintIngredientsList\bin\Debug\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B750EB5C-1522-4555-8670-D203A7FF122D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FD9BE9-59A3-4A22-9D42-4035595D6510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="1050" windowWidth="26100" windowHeight="16350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2310" yWindow="1050" windowWidth="26100" windowHeight="16350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品データ" sheetId="2" r:id="rId1"/>
@@ -658,7 +658,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -771,7 +771,7 @@
     </row>
     <row r="4" spans="1:10" ht="75">
       <c r="A4" s="6">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>

--- a/PrintIngredientsList/bin/Debug/Database/商品.xlsx
+++ b/PrintIngredientsList/bin/Debug/Database/商品.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\桑原さんソフト\GitHub\成分表印刷\PrintIngredientsList\PrintIngredientsList\bin\Debug\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FD9BE9-59A3-4A22-9D42-4035595D6510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053FBFF1-C721-45C9-B304-6421FF7EBC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="1050" windowWidth="26100" windowHeight="16350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="795" yWindow="270" windowWidth="25110" windowHeight="16350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品データ" sheetId="2" r:id="rId1"/>
@@ -658,7 +658,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/PrintIngredientsList/bin/Debug/Database/商品.xlsx
+++ b/PrintIngredientsList/bin/Debug/Database/商品.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\桑原さんソフト\GitHub\成分表印刷\PrintIngredientsList\PrintIngredientsList\bin\Debug\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuwah\Documents\(00_MyDevelopments)\01_成分表印刷\PrintIngredientsList_Module-main\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053FBFF1-C721-45C9-B304-6421FF7EBC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6893641E-42A0-40FB-9C9E-A1BD9D986AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="270" windowWidth="25110" windowHeight="16350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="720" windowWidth="24435" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品データ" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
   <si>
     <t>分類</t>
   </si>
@@ -54,6 +54,9 @@
       <t>ヤキガシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ココナッツスティック</t>
   </si>
   <si>
     <t>玄米（福岡県産）、有機メープルシロップ、有機ココナッツオイル、有機ココナッツファイン、有機片栗粉、有機ココナッツフラワー、高きび、きび糖、食塩</t>
@@ -112,157 +115,8 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>生菓子</t>
-    <rPh sb="0" eb="3">
-      <t>ナマガシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ケーキ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>AAA</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BBB</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CCC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DDD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>EEE</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>原材料 ＢＢＢＢ</t>
-    <rPh sb="0" eb="3">
-      <t>ゲンザイリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>原材料 CCCC</t>
-    <rPh sb="0" eb="3">
-      <t>ゲンザイリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>原材料 DDDDD</t>
-    <rPh sb="0" eb="3">
-      <t>ゲンザイリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>原材料 EEEEE</t>
-    <rPh sb="0" eb="3">
-      <t>ゲンザイリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>原材料 AAAA
-AAAAA2、AAAA3</t>
-    <rPh sb="0" eb="3">
-      <t>ゲンザイリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A個</t>
-    <rPh sb="1" eb="2">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>B個</t>
-    <rPh sb="1" eb="2">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>C個</t>
-    <rPh sb="1" eb="2">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>D個</t>
-    <rPh sb="1" eb="2">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>E個</t>
-    <rPh sb="1" eb="2">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>冷蔵</t>
-    <rPh sb="0" eb="2">
-      <t>レイゾウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アレルギーAAA</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アレルギーBBB</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アレルギーCCC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アレルギーDDD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アレルギーEEE</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>※塩麹のお米は自然栽培です。
 ※粉末昆布は北海道産の天然利尻昆布の粉末を使用しています。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※AAAAAA</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※BBBBBBB</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※CCCCCC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※DDDDDD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※EEEEEEEEEEEEEEEEEEEEEEEEE</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -281,21 +135,183 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>第２工房</t>
+    <t>マフィン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>生米パン</t>
+    <rPh sb="0" eb="2">
+      <t>ナマゴメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米(福岡県産)、胚芽米(福岡県産)、有機ココナッツオイル、きび糖、酵母、食塩</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1個</t>
+    <rPh sb="1" eb="2">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無し</t>
     <rPh sb="0" eb="1">
-      <t>ダイ</t>
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本店</t>
+    <rPh sb="0" eb="2">
+      <t>ホンテン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※玄米、胚芽米は自然栽培米を使用しています。
+※食塩は天日湖塩を使用しています。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米(福岡県産)、たまねぎ、有機ココナッツオイル、きび糖、白神こだま酵母、食塩、こしょう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※玄米は自然栽培米を使用しています。
+※野菜は自然栽培のものを使用しています。
+※食塩は天日湖塩を使用しています。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※玄米は自然栽培米を使用しています。
+※食塩は天日湖塩を使用しています。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米（福岡県産）、有機豆乳、有機アーモンド、有機ココナッツオイル、有機メープルシロップ、黒豆、有機抹茶、食塩 / ベーキングパウダー（アルミフリー）</t>
+    <rPh sb="9" eb="11">
+      <t>ユウキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米(福岡県産)、有機豆乳、有機ｱｰﾓﾝﾄﾞ、有機ﾒｰﾌﾟﾙｼﾛｯﾌﾟ、有機ｵﾚﾝｼﾞｽﾌﾟﾚｯﾄﾞ、有機ｺｺﾅｯﾂｵｲﾙ、有機ﾍﾞﾙｶﾞﾓｯﾄ、食塩 、有機ﾚﾓﾝ、きび糖
+/ ﾍﾞｰｷﾝｸﾞﾊﾟｳﾀﾞｰ(ｱﾙﾐﾌﾘｰ)</t>
+    <rPh sb="9" eb="11">
+      <t>ユウキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米(福岡県産)、有機豆乳、有機アーモンド、有機ココナッツオイル、ブルーベリー、きび糖、食塩
+/ ﾍﾞｰｷﾝｸﾞﾊﾟｳﾀﾞｰ(ｱﾙﾐﾌﾘｰ)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大豆、アーモンド</t>
+    <rPh sb="0" eb="2">
+      <t>ダイズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米(福岡県産)、赤ほうれん草、有機ココナッツオイル、きび糖、白神こだま酵母、食塩</t>
+    <rPh sb="9" eb="10">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発芽玄米 生米パン(プレーン)</t>
+    <rPh sb="0" eb="2">
+      <t>ハツガ</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>コウボウ</t>
-    </rPh>
+      <t>ゲンマイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナマゴメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発芽玄米 生米パン(オニオン)</t>
+    <rPh sb="0" eb="2">
+      <t>ハツガ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲンマイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナマゴメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発芽玄米 生米パン(赤ほうれん草)</t>
+    <rPh sb="0" eb="2">
+      <t>ハツガ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲンマイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナマゴメ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄マフィン(有機抹茶と黒豆)</t>
+    <rPh sb="0" eb="1">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄マフィン(オレンジアールグレイ)</t>
+    <rPh sb="0" eb="1">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄マフィン(酵素ブルーベリー)</t>
+    <rPh sb="0" eb="1">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄マフィン(重ね煮)</t>
+    <rPh sb="0" eb="1">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ニ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米（福岡県産）、有機豆乳、重ね煮（コリンキー、玉ねぎ、人参、えのき）、有機アーモンド、有機ココナッツシュガー、有機ココナッツオイル、食塩 / ﾍﾞｰｷﾝｸﾞﾊﾟｳﾀﾞｰ（ｱﾙﾐﾌﾘｰ）</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ココナッツスティックｄｆｄｆｆ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -327,7 +343,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,12 +353,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -369,12 +379,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -655,15 +659,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056D1AAA-C8E0-45CB-9771-31698DB73B58}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="9" style="6"/>
     <col min="3" max="3" width="26.625" customWidth="1"/>
     <col min="4" max="4" width="33.375" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
@@ -674,8 +677,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="5" t="s">
-        <v>53</v>
+      <c r="A1" t="s">
+        <v>48</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -684,13 +687,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>3</v>
@@ -706,259 +709,323 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="93.75">
-      <c r="A2" s="6">
+      <c r="A2">
         <v>1001</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1">
         <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="100.5" customHeight="1">
-      <c r="A3" s="6">
+      <c r="A3">
         <v>1002</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1">
         <v>30</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="75">
-      <c r="A4" s="6">
+      <c r="A4">
         <v>1003</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1">
         <v>30</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="56.25">
+      <c r="A5">
+        <v>2001</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="76.5" customHeight="1">
+      <c r="A6">
+        <v>2002</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="76.5" customHeight="1">
+      <c r="A7">
+        <v>2003</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="93.75">
+      <c r="A8">
+        <v>3001</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" ht="37.5">
-      <c r="A5" s="6">
-        <v>2001</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="1">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1" t="s">
+    <row r="9" spans="1:10" ht="93.75">
+      <c r="A9">
+        <v>3002</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="75">
+      <c r="A10">
+        <v>3003</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>44</v>
+      <c r="I10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="6">
-        <v>2002</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="1">
-        <v>15</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="6">
-        <v>2003</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
+    <row r="11" spans="1:10" ht="93.75">
+      <c r="A11">
+        <v>3004</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="J11" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="F7" s="1">
-        <v>20</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="6">
-        <v>3001</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="1">
-        <v>60</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="6">
-        <v>3002</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="1">
-        <v>90</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/PrintIngredientsList/bin/Debug/Database/商品.xlsx
+++ b/PrintIngredientsList/bin/Debug/Database/商品.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuwah\Documents\(00_MyDevelopments)\01_成分表印刷\PrintIngredientsList_Module-main\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\桑原さんソフト\GitHub\成分表印刷\PrintIngredientsList\PrintIngredientsList\bin\Debug\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6893641E-42A0-40FB-9C9E-A1BD9D986AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED695C8A-D3EF-4435-BE7D-448466CEB742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="720" windowWidth="24435" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="24555" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品データ" sheetId="2" r:id="rId1"/>
@@ -228,32 +228,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>発芽玄米 生米パン(プレーン)</t>
-    <rPh sb="0" eb="2">
-      <t>ハツガ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ゲンマイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ナマゴメ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>発芽玄米 生米パン(オニオン)</t>
-    <rPh sb="0" eb="2">
-      <t>ハツガ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ゲンマイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ナマゴメ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>発芽玄米 生米パン(赤ほうれん草)</t>
     <rPh sb="0" eb="2">
       <t>ハツガ</t>
@@ -312,6 +286,34 @@
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発芽玄米 生米パン
+(プレーン)</t>
+    <rPh sb="0" eb="2">
+      <t>ハツガ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲンマイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナマゴメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発芽玄米 生米パン
+(オニオン)</t>
+    <rPh sb="0" eb="2">
+      <t>ハツガ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲンマイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナマゴメ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -661,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056D1AAA-C8E0-45CB-9771-31698DB73B58}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -678,7 +680,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -812,7 +814,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>27</v>
@@ -844,7 +846,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>32</v>
@@ -876,7 +878,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>39</v>
@@ -908,7 +910,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>35</v>
@@ -940,7 +942,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>36</v>
@@ -972,7 +974,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>37</v>
@@ -1004,10 +1006,10 @@
         <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>28</v>

--- a/PrintIngredientsList/bin/Debug/Database/商品.xlsx
+++ b/PrintIngredientsList/bin/Debug/Database/商品.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\桑原さんソフト\GitHub\成分表印刷\PrintIngredientsList\PrintIngredientsList\bin\Debug\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\桑原さんソフト\GitHub\成分表印刷\PrintIngredientsList_PrintLayout\PrintIngredientsList\bin\Debug\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED695C8A-D3EF-4435-BE7D-448466CEB742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6028C6C7-3E3E-4647-81AF-5E31EE9AF072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="24555" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5040" yWindow="2505" windowWidth="24555" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品データ" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="59">
   <si>
     <t>分類</t>
   </si>
@@ -228,6 +228,32 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>発芽玄米 生米パン(プレーン)</t>
+    <rPh sb="0" eb="2">
+      <t>ハツガ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲンマイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナマゴメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発芽玄米 生米パン(オニオン)</t>
+    <rPh sb="0" eb="2">
+      <t>ハツガ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲンマイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナマゴメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>発芽玄米 生米パン(赤ほうれん草)</t>
     <rPh sb="0" eb="2">
       <t>ハツガ</t>
@@ -289,31 +315,39 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>発芽玄米 生米パン
-(プレーン)</t>
-    <rPh sb="0" eb="2">
-      <t>ハツガ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ゲンマイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ナマゴメ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>発芽玄米 生米パン
-(オニオン)</t>
-    <rPh sb="0" eb="2">
-      <t>ハツガ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ゲンマイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ナマゴメ</t>
-    </rPh>
+    <t>熱量</t>
+  </si>
+  <si>
+    <t>たんぱく質</t>
+  </si>
+  <si>
+    <t>脂質</t>
+  </si>
+  <si>
+    <t>炭水化物</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>食塩相当量</t>
+  </si>
+  <si>
+    <t>100Kcal</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10ｇ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>20ｇ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>30ｇ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2ｇ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -661,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056D1AAA-C8E0-45CB-9771-31698DB73B58}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="J3" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -676,11 +710,13 @@
     <col min="7" max="8" width="15.5" customWidth="1"/>
     <col min="9" max="9" width="23.125" customWidth="1"/>
     <col min="10" max="10" width="58" customWidth="1"/>
+    <col min="12" max="12" width="10.5" customWidth="1"/>
+    <col min="15" max="15" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -709,8 +745,23 @@
       <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="K1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="93.75">
+    <row r="2" spans="1:15" ht="93.75">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -741,8 +792,23 @@
       <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="K2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="100.5" customHeight="1">
+    <row r="3" spans="1:15" ht="100.5" customHeight="1">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -773,8 +839,23 @@
       <c r="J3" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="K3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" ht="75">
+    <row r="4" spans="1:15" ht="75">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -805,8 +886,23 @@
       <c r="J4" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="K4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" ht="56.25">
+    <row r="5" spans="1:15" ht="56.25">
       <c r="A5">
         <v>2001</v>
       </c>
@@ -814,7 +910,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>27</v>
@@ -837,8 +933,23 @@
       <c r="J5" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="K5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" ht="76.5" customHeight="1">
+    <row r="6" spans="1:15" ht="76.5" customHeight="1">
       <c r="A6">
         <v>2002</v>
       </c>
@@ -846,7 +957,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>32</v>
@@ -869,8 +980,23 @@
       <c r="J6" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="K6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" ht="76.5" customHeight="1">
+    <row r="7" spans="1:15" ht="76.5" customHeight="1">
       <c r="A7">
         <v>2003</v>
       </c>
@@ -878,7 +1004,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>39</v>
@@ -901,8 +1027,23 @@
       <c r="J7" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="K7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" ht="93.75">
+    <row r="8" spans="1:15" ht="93.75">
       <c r="A8">
         <v>3001</v>
       </c>
@@ -910,7 +1051,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>35</v>
@@ -933,8 +1074,23 @@
       <c r="J8" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="K8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" ht="93.75">
+    <row r="9" spans="1:15" ht="93.75">
       <c r="A9">
         <v>3002</v>
       </c>
@@ -942,7 +1098,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>36</v>
@@ -965,8 +1121,23 @@
       <c r="J9" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="K9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" ht="75">
+    <row r="10" spans="1:15" ht="75">
       <c r="A10">
         <v>3003</v>
       </c>
@@ -974,7 +1145,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>37</v>
@@ -997,8 +1168,23 @@
       <c r="J10" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="K10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" ht="93.75">
+    <row r="11" spans="1:15" ht="93.75">
       <c r="A11">
         <v>3004</v>
       </c>
@@ -1006,10 +1192,10 @@
         <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>28</v>
@@ -1028,6 +1214,21 @@
       </c>
       <c r="J11" s="2" t="s">
         <v>34</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/PrintIngredientsList/bin/Debug/Database/商品.xlsx
+++ b/PrintIngredientsList/bin/Debug/Database/商品.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\桑原さんソフト\GitHub\成分表印刷\PrintIngredientsList\PrintIngredientsList\bin\Debug\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuwah\Documents\(00_MyDevelopments)\01_成分表印刷\PrintIngredientsList_Module-main\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED695C8A-D3EF-4435-BE7D-448466CEB742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733DB588-717D-4979-A5C7-D3D1F4B27890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="24555" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="90" yWindow="-18120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品データ" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="75">
   <si>
     <t>分類</t>
   </si>
@@ -59,10 +59,6 @@
     <t>ココナッツスティック</t>
   </si>
   <si>
-    <t>玄米（福岡県産）、有機メープルシロップ、有機ココナッツオイル、有機ココナッツファイン、有機片栗粉、有機ココナッツフラワー、高きび、きび糖、食塩</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>3本</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -81,13 +77,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>※玄米は自然栽培米を使用しています。
-※食塩は天日塩を使用しています。
-※塩麹のお米は自然栽培です。
-※粉末昆布は北海道産の天然利尻昆布の粉末を使用しています。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ラングドシャ</t>
   </si>
   <si>
@@ -112,11 +101,6 @@
   </si>
   <si>
     <t>2個</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※塩麹のお米は自然栽培です。
-※粉末昆布は北海道産の天然利尻昆布の粉末を使用しています。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -171,23 +155,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>※玄米、胚芽米は自然栽培米を使用しています。
-※食塩は天日湖塩を使用しています。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>玄米(福岡県産)、たまねぎ、有機ココナッツオイル、きび糖、白神こだま酵母、食塩、こしょう</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※玄米は自然栽培米を使用しています。
-※野菜は自然栽培のものを使用しています。
-※食塩は天日湖塩を使用しています。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※玄米は自然栽培米を使用しています。
-※食塩は天日湖塩を使用しています。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -228,64 +196,104 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>発芽玄米 生米パン(赤ほうれん草)</t>
+    <t>玄米（福岡県産）、有機豆乳、重ね煮（コリンキー、玉ねぎ、人参、えのき）、有機アーモンド、有機ココナッツシュガー、有機ココナッツオイル、食塩 / ﾍﾞｰｷﾝｸﾞﾊﾟｳﾀﾞｰ（ｱﾙﾐﾌﾘｰ）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラスク</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米（福岡県産）、有機豆乳、有機ココナッツオイル、きび糖、食塩/ベーキングパウダー（アルミフリー）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 玄米（福岡県産）、有機豆乳、有機ココナッツオイル、きび糖、有機ブラックココア、食塩/ベーキングパウダー（アルミフリー）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大豆</t>
     <rPh sb="0" eb="2">
-      <t>ハツガ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ゲンマイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ナマゴメ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ソウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>玄マフィン(有機抹茶と黒豆)</t>
-    <rPh sb="0" eb="1">
-      <t>ゲン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>玄マフィン(オレンジアールグレイ)</t>
-    <rPh sb="0" eb="1">
-      <t>ゲン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>玄マフィン(酵素ブルーベリー)</t>
-    <rPh sb="0" eb="1">
-      <t>ゲン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>玄マフィン(重ね煮)</t>
-    <rPh sb="0" eb="1">
-      <t>ゲン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カサ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ニ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>玄米（福岡県産）、有機豆乳、重ね煮（コリンキー、玉ねぎ、人参、えのき）、有機アーモンド、有機ココナッツシュガー、有機ココナッツオイル、食塩 / ﾍﾞｰｷﾝｸﾞﾊﾟｳﾀﾞｰ（ｱﾙﾐﾌﾘｰ）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ID</t>
+      <t>ダイズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ケーキ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>豆乳ヨーグルト（北海道産）、玄米、豆乳、有機ココナッツオイル、有機メープルシロップ、有機ｵﾚﾝｼﾞｽﾌﾟﾚｯﾄﾞ、有機ｺｺﾅｯﾂﾐﾙｸ、白味噌、酒粕、有機ﾚﾓﾝ果汁、有機ｺｺﾅｯﾂｼｭｶﾞｰ、食塩</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヴィーガンベイクドチーズケーキ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>冷蔵</t>
+    <rPh sb="0" eb="2">
+      <t>レイゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大豆</t>
+    <rPh sb="0" eb="2">
+      <t>ダイズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>50g</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米(福岡県産)、有機ココナッツオイル、有機ココナッツシュガー、食塩</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米(福岡県産)、有機ココナッツシュガー、有機ココナッツオイル、有機ココア、有機コンスターチ、有機ココナッツMCTオイル、有機カカオニブ、食塩</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米(福岡県産)、有機ココナッツオイル、有機ココナッツシュガー、有機片栗粉、有機黒ごま(宮崎県産)、有機ジンジャーパウダ、食塩</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発芽玄米クッキー
+(プレーン)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発芽玄米クッキー
+(カカオ)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発芽玄米クッキー
+(ジンジャーセサミ)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1枚</t>
+    <rPh sb="1" eb="2">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>切れはしラスク
+(プレーン)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>切れはしラスク
+(ココア)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -313,6 +321,148 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ナマゴメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発芽玄米 生米パン
+(赤ほうれん草)</t>
+    <rPh sb="0" eb="2">
+      <t>ハツガ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲンマイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナマゴメ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄マフィン
+(有機抹茶と黒豆)</t>
+    <rPh sb="0" eb="1">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄マフィン
+(オレンジアールグレイ)</t>
+    <rPh sb="0" eb="1">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄マフィン
+(酵素ブルーベリー)</t>
+    <rPh sb="0" eb="1">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄マフィン
+(季節の重ね煮)</t>
+    <rPh sb="0" eb="1">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キセツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ニ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※玄米は福岡県産の自然栽培米を使用。
+※食塩は天日湖塩を使用。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※玄米は福岡県産の自然栽培米を使用。
+※野菜は自然栽培のものを使用。
+※食塩は天日湖塩を使用。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※玄米、胚芽米は福岡県産の自然栽培米を使用。
+※食塩は天日湖塩を使用。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※玄米は福岡県産の自然栽培米を使用。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米（福岡県産）、有機メープルシロップ、有機ココナッツオイル、有機ココナッツファイン、有機片栗粉、有機ココナッツフラワー、有機ココナッツシュガー、全粒ソルガム、食塩</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄マフィン
+(オーガニックあまおう)</t>
+    <rPh sb="0" eb="1">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄マフィン
+(りんごとシナモン)</t>
+    <rPh sb="0" eb="1">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄マフィン
+(カフェオレカカオニブ)</t>
+    <rPh sb="0" eb="1">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米（福岡県産）、有機豆乳、有機メープルシロップ、有機ココナッツオイル、有機コーヒー、有機カカオニブ、食塩 / ベーキングパウダー（アルミフリー）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄マフィン
+(カシスオレンジ)</t>
+    <rPh sb="0" eb="1">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米（福岡県産）、有機豆乳、有機アーモンド、有機メープルシロップ、有機ココナッツオイル、有機オレンジスプレッド、有機カシススプレッド、食塩　/ベーキングパウダー（アルミフリー）</t>
+    <rPh sb="9" eb="11">
+      <t>ユウキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>りんご（青森県産）、玄米、有機豆乳、有機アーモンド、有機メープルシロップ、有機ココナッツオイル、食塩、有機シナモンパウダー　/　ベーキングパウダー（アルミフリー）</t>
+    <rPh sb="13" eb="15">
+      <t>ユウキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米（福岡県産）、有機豆乳、有機アーモンド、有機メープルシロップ、有機ココナッツオイル、有機あまおうコンポート（有機あまおう、きび糖、レモン果汁）食塩、有機ブラックペッパー　/ ベーキングパウダー（アルミフリー）</t>
+    <rPh sb="9" eb="11">
+      <t>ユウキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -321,7 +471,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,6 +493,13 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -371,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -381,6 +538,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -661,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056D1AAA-C8E0-45CB-9771-31698DB73B58}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -680,7 +843,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -689,13 +852,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>3</v>
@@ -721,313 +884,648 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F2" s="1">
         <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="100.5" customHeight="1">
       <c r="A3">
+        <f>A2+1</f>
         <v>1002</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="F3" s="1">
         <v>30</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="75">
       <c r="A4">
+        <f t="shared" ref="A4:A10" si="0">A3+1</f>
         <v>1003</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="F4" s="1">
         <v>30</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="56.25">
       <c r="A5">
-        <v>2001</v>
+        <f t="shared" si="0"/>
+        <v>1004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="76.5" customHeight="1">
       <c r="A6">
-        <v>2002</v>
+        <f t="shared" si="0"/>
+        <v>1005</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1">
         <v>2</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="76.5" customHeight="1">
       <c r="A7">
-        <v>2003</v>
+        <f t="shared" si="0"/>
+        <v>1006</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1">
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I7" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="93.75">
       <c r="A8">
-        <v>3001</v>
+        <f t="shared" si="0"/>
+        <v>1007</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="F8" s="1">
         <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="93.75">
       <c r="A9">
-        <v>3002</v>
+        <f t="shared" si="0"/>
+        <v>1008</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="F9" s="1">
         <v>2</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="75">
       <c r="A10">
-        <v>3003</v>
+        <f t="shared" si="0"/>
+        <v>1009</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="93.75">
       <c r="A11">
-        <v>3004</v>
+        <f>A10+1</f>
+        <v>1010</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="56.25">
+      <c r="A12">
+        <f t="shared" ref="A12:A17" si="1">A11+1</f>
+        <v>1011</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="1">
+        <v>30</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="75">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>1012</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="1">
+        <v>30</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="93.75">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>1013</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="37.5">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>1014</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="1">
+        <v>30</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>34</v>
+      <c r="I15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="93.75">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>1015</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="1">
+        <v>30</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="75">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>1016</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="1">
+        <v>30</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="131.25">
+      <c r="A18">
+        <v>1017</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="93.75">
+      <c r="A19">
+        <v>1018</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="93.75">
+      <c r="A20">
+        <v>1019</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="112.5">
+      <c r="A21">
+        <v>1020</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/PrintIngredientsList/bin/Debug/Database/商品.xlsx
+++ b/PrintIngredientsList/bin/Debug/Database/商品.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\桑原さんソフト\GitHub\成分表印刷\PrintIngredientsList_PrintLayout\PrintIngredientsList\bin\Debug\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\桑原さんソフト\GitHub\成分表印刷\PrintIngredientsList_Layout\PrintIngredientsList\PrintIngredientsList\bin\Debug\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E35421-129C-43B2-835A-D050177F760E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3014C797-EB78-4122-A98D-6100C40126FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8865" yWindow="1215" windowWidth="19095" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2745" windowWidth="23775" windowHeight="12225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="焼菓子" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="82">
+  <si>
+    <t>分類</t>
+  </si>
   <si>
     <t>名称</t>
   </si>
@@ -50,7 +53,7 @@
   </si>
   <si>
     <t>アレルギー</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>製造者</t>
@@ -59,77 +62,95 @@
     <t>欄外</t>
   </si>
   <si>
+    <t>焼菓子</t>
+    <rPh sb="0" eb="3">
+      <t>ヤキガシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>ココナッツスティック</t>
   </si>
   <si>
     <t>3本</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>常温</t>
     <rPh sb="0" eb="2">
       <t>ジョウオン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>無し</t>
     <rPh sb="0" eb="1">
       <t>ナ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ラングドシャ</t>
   </si>
   <si>
     <t>有機ファットスプレッド（デンマーク）、玄米、きび糖、豆乳ヨーグルト、有機アーモンド、有機片栗粉、高きび、有機ベルガモット、有機バニラエクストラクト</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2枚</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>アーモンド</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>賞味期限</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>原材料</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>本店</t>
     <rPh sb="0" eb="2">
       <t>ホンテン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マフィン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>生米パン</t>
+    <rPh sb="0" eb="2">
+      <t>ナマゴメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米(福岡県産)、胚芽米(福岡県産)、有機ココナッツオイル、きび糖、酵母、食塩</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1個</t>
     <rPh sb="1" eb="2">
       <t>コ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米(福岡県産)、たまねぎ、有機ココナッツオイル、きび糖、白神こだま酵母、食塩、こしょう</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米（福岡県産）、有機豆乳、有機アーモンド、有機ココナッツオイル、有機メープルシロップ、黒豆、有機抹茶、食塩 / ベーキングパウダー（アルミフリー）</t>
     <rPh sb="9" eb="11">
       <t>ユウキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米(福岡県産)、有機豆乳、有機ｱｰﾓﾝﾄﾞ、有機ﾒｰﾌﾟﾙｼﾛｯﾌﾟ、有機ｵﾚﾝｼﾞｽﾌﾟﾚｯﾄﾞ、有機ｺｺﾅｯﾂｵｲﾙ、有機ﾍﾞﾙｶﾞﾓｯﾄ、食塩 、有機ﾚﾓﾝ、きび糖
@@ -137,19 +158,19 @@
     <rPh sb="9" eb="11">
       <t>ユウキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米(福岡県産)、有機豆乳、有機アーモンド、有機ココナッツオイル、ブルーベリー、きび糖、食塩
 / ﾍﾞｰｷﾝｸﾞﾊﾟｳﾀﾞｰ(ｱﾙﾐﾌﾘｰ)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>大豆、アーモンド</t>
     <rPh sb="0" eb="2">
       <t>ダイズ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米(福岡県産)、赤ほうれん草、有機ココナッツオイル、きび糖、白神こだま酵母、食塩</t>
@@ -159,93 +180,101 @@
     <rPh sb="14" eb="15">
       <t>ソウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米（福岡県産）、有機豆乳、重ね煮（コリンキー、玉ねぎ、人参、えのき）、有機アーモンド、有機ココナッツシュガー、有機ココナッツオイル、食塩 / ﾍﾞｰｷﾝｸﾞﾊﾟｳﾀﾞｰ（ｱﾙﾐﾌﾘｰ）</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラスク</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米（福岡県産）、有機豆乳、有機ココナッツオイル、きび糖、食塩/ベーキングパウダー（アルミフリー）</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t xml:space="preserve"> 玄米（福岡県産）、有機豆乳、有機ココナッツオイル、きび糖、有機ブラックココア、食塩/ベーキングパウダー（アルミフリー）</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>大豆</t>
     <rPh sb="0" eb="2">
       <t>ダイズ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ケーキ</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>豆乳ヨーグルト（北海道産）、玄米、豆乳、有機ココナッツオイル、有機メープルシロップ、有機ｵﾚﾝｼﾞｽﾌﾟﾚｯﾄﾞ、有機ｺｺﾅｯﾂﾐﾙｸ、白味噌、酒粕、有機ﾚﾓﾝ果汁、有機ｺｺﾅｯﾂｼｭｶﾞｰ、食塩</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ヴィーガンベイクドチーズケーキ</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>冷蔵</t>
     <rPh sb="0" eb="2">
       <t>レイゾウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>50g</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米(福岡県産)、有機ココナッツオイル、有機ココナッツシュガー、食塩</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米(福岡県産)、有機ココナッツシュガー、有機ココナッツオイル、有機ココア、有機コンスターチ、有機ココナッツMCTオイル、有機カカオニブ、食塩</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米(福岡県産)、有機ココナッツオイル、有機ココナッツシュガー、有機片栗粉、有機黒ごま(宮崎県産)、有機ジンジャーパウダ、食塩</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>発芽玄米クッキー
 (プレーン)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>発芽玄米クッキー
 (カカオ)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>発芽玄米クッキー
 (ジンジャーセサミ)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1枚</t>
     <rPh sb="1" eb="2">
       <t>マイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>切れはしラスク
 (プレーン)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>切れはしラスク
 (ココア)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>発芽玄米 生米パン
@@ -259,7 +288,7 @@
     <rPh sb="5" eb="7">
       <t>ナマゴメ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>発芽玄米 生米パン
@@ -273,7 +302,7 @@
     <rPh sb="5" eb="7">
       <t>ナマゴメ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>発芽玄米 生米パン
@@ -293,7 +322,7 @@
     <rPh sb="16" eb="17">
       <t>ソウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄マフィン
@@ -301,7 +330,7 @@
     <rPh sb="0" eb="1">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄マフィン
@@ -309,7 +338,7 @@
     <rPh sb="0" eb="1">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄マフィン
@@ -317,7 +346,7 @@
     <rPh sb="0" eb="1">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄マフィン
@@ -334,31 +363,31 @@
     <rPh sb="12" eb="13">
       <t>ニ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>※玄米は福岡県産の自然栽培米を使用。
 ※食塩は天日湖塩を使用。</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>※玄米は福岡県産の自然栽培米を使用。
 ※野菜は自然栽培のものを使用。
 ※食塩は天日湖塩を使用。</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>※玄米、胚芽米は福岡県産の自然栽培米を使用。
 ※食塩は天日湖塩を使用。</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>※玄米は福岡県産の自然栽培米を使用。</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米（福岡県産）、有機メープルシロップ、有機ココナッツオイル、有機ココナッツファイン、有機片栗粉、有機ココナッツフラワー、有機ココナッツシュガー、全粒ソルガム、食塩</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄マフィン
@@ -366,7 +395,7 @@
     <rPh sb="0" eb="1">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄マフィン
@@ -374,7 +403,7 @@
     <rPh sb="0" eb="1">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄マフィン
@@ -382,11 +411,11 @@
     <rPh sb="0" eb="1">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米（福岡県産）、有機豆乳、有機メープルシロップ、有機ココナッツオイル、有機コーヒー、有機カカオニブ、食塩 / ベーキングパウダー（アルミフリー）</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄マフィン
@@ -394,28 +423,28 @@
     <rPh sb="0" eb="1">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米（福岡県産）、有機豆乳、有機アーモンド、有機メープルシロップ、有機ココナッツオイル、有機オレンジスプレッド、有機カシススプレッド、食塩　/ベーキングパウダー（アルミフリー）</t>
     <rPh sb="9" eb="11">
       <t>ユウキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>りんご（青森県産）、玄米、有機豆乳、有機アーモンド、有機メープルシロップ、有機ココナッツオイル、食塩、有機シナモンパウダー　/　ベーキングパウダー（アルミフリー）</t>
     <rPh sb="13" eb="15">
       <t>ユウキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米（福岡県産）、有機豆乳、有機アーモンド、有機メープルシロップ、有機ココナッツオイル、有機あまおうコンポート（有機あまおう、きび糖、レモン果汁）食塩、有機ブラックペッパー　/ ベーキングパウダー（アルミフリー）</t>
     <rPh sb="9" eb="11">
       <t>ユウキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>熱量</t>
@@ -446,18 +475,38 @@
   </si>
   <si>
     <t>2ｇ</t>
+  </si>
+  <si>
+    <t>玄米クロッカン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>有機アーモンド（アメリカ）、有機ヘーゼルナッツ、有機ココナッツシュガー、ひよこ豆、玄米、有機コーンスターチ、有機バニラエクストラクト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2個</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -507,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -515,8 +564,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -803,1181 +853,1297 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056D1AAA-C8E0-45CB-9771-31698DB73B58}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="26.625" customWidth="1"/>
-    <col min="3" max="3" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="23.125" customWidth="1"/>
-    <col min="9" max="9" width="58" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
+    <col min="4" max="4" width="33.375" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="23.125" customWidth="1"/>
+    <col min="10" max="10" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="93.75">
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="93.75">
       <c r="A2">
         <v>1001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1">
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1">
         <v>30</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>68</v>
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="100.5" customHeight="1">
+        <v>77</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="100.5" customHeight="1">
       <c r="A3">
         <v>1002</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="75">
+      <c r="A4">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="1">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="37.5">
+      <c r="A5">
+        <v>1014</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="1">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="I5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="93.75">
+      <c r="A6">
+        <v>1015</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="1">
         <v>30</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="37.5">
-      <c r="A4">
-        <v>1014</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="75">
+      <c r="A7">
+        <v>1016</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="1">
         <v>30</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="93.75">
-      <c r="A5">
-        <v>1015</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="1">
-        <v>30</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="75">
-      <c r="A6">
-        <v>1016</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="1">
-        <v>30</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>72</v>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD5B5A1-257C-47A8-A3B6-5EDA470601F6}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="26.625" customWidth="1"/>
-    <col min="3" max="3" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="23.125" customWidth="1"/>
-    <col min="9" max="9" width="58" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
+    <col min="4" max="4" width="33.375" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="23.125" customWidth="1"/>
+    <col min="10" max="10" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="56.25">
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="56.25">
       <c r="A2">
         <v>1004</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>43</v>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>68</v>
+      <c r="J2" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="76.5" customHeight="1">
+        <v>77</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="76.5" customHeight="1">
       <c r="A3">
         <v>1005</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>44</v>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>68</v>
+      <c r="J3" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="76.5" customHeight="1">
+        <v>77</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="76.5" customHeight="1">
       <c r="A4">
         <v>1006</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>45</v>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>68</v>
+      <c r="J4" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617ED746-FDCE-4A6D-98AA-19154EA655CA}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="26.625" customWidth="1"/>
-    <col min="3" max="3" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="23.125" customWidth="1"/>
-    <col min="9" max="9" width="58" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
+    <col min="4" max="4" width="33.375" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="23.125" customWidth="1"/>
+    <col min="10" max="10" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="93.75">
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="93.75">
       <c r="A2">
         <v>1007</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>46</v>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>68</v>
+      <c r="J2" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="93.75">
+        <v>77</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="93.75">
       <c r="A3">
         <v>1008</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>47</v>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>68</v>
+      <c r="J3" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="75">
+        <v>77</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="75">
       <c r="A4">
         <v>1009</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>48</v>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>68</v>
+      <c r="J4" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="93.75">
+        <v>77</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="93.75">
       <c r="A5">
         <v>1010</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>49</v>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>68</v>
+      <c r="J5" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="131.25">
+        <v>77</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="131.25">
       <c r="A6">
         <v>1017</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>55</v>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>68</v>
+      <c r="J6" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="93.75">
+        <v>77</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="93.75">
       <c r="A7">
         <v>1018</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="K7" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="93.75">
+        <v>77</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="93.75">
       <c r="A8">
         <v>1019</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>57</v>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="1">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>68</v>
+      <c r="J8" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="112.5">
+        <v>77</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="112.5">
       <c r="A9">
         <v>1020</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>59</v>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="1">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>68</v>
+      <c r="J9" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCC6BD5-D7E8-4988-985B-B9A0CAE8C150}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="26.625" customWidth="1"/>
-    <col min="3" max="3" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="23.125" customWidth="1"/>
-    <col min="9" max="9" width="58" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
+    <col min="4" max="4" width="33.375" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="23.125" customWidth="1"/>
+    <col min="10" max="10" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="56.25">
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="56.25">
       <c r="A2">
         <v>1011</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>41</v>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="1">
+        <v>47</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="1">
         <v>30</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>68</v>
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="75">
+        <v>77</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="75">
       <c r="A3">
         <v>1012</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>42</v>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="1">
         <v>30</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>68</v>
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486C1957-759C-4761-8D6D-756DF243CF00}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="26.625" customWidth="1"/>
-    <col min="3" max="3" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="23.125" customWidth="1"/>
-    <col min="9" max="9" width="58" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
+    <col min="4" max="4" width="33.375" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="23.125" customWidth="1"/>
+    <col min="10" max="10" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="93.75">
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="93.75">
       <c r="A2">
         <v>1013</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>68</v>
+      <c r="J2" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PrintIngredientsList/bin/Debug/Database/商品.xlsx
+++ b/PrintIngredientsList/bin/Debug/Database/商品.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuwah\Documents\(00_MyDevelopments)\01_成分表印刷\PrintIngredientsList_Module-main\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDocuments\(00_MyDevelopments)\01_成分表印刷\_PrintIngredientsList_Module-main_old\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733DB588-717D-4979-A5C7-D3D1F4B27890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D21D69-FA45-4430-80FB-F7BBBC5898EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="-18120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品データ" sheetId="2" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="93">
   <si>
     <t>分類</t>
   </si>
@@ -196,10 +207,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>玄米（福岡県産）、有機豆乳、重ね煮（コリンキー、玉ねぎ、人参、えのき）、有機アーモンド、有機ココナッツシュガー、有機ココナッツオイル、食塩 / ﾍﾞｰｷﾝｸﾞﾊﾟｳﾀﾞｰ（ｱﾙﾐﾌﾘｰ）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -464,6 +471,116 @@
     <rPh sb="9" eb="11">
       <t>ユウキ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米（福岡県産）、有機豆乳、重ね煮（コリンキー、玉ねぎ、人参、えのき）、有機アーモンド、有機ココナッツシュガー、有機ココナッツオイル、さつまいも、食塩 / ﾍﾞｰｷﾝｸﾞﾊﾟｳﾀﾞｰ（ｱﾙﾐﾌﾘｰ）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１個</t>
+    <rPh sb="1" eb="2">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄マフィン
+(チョコチップ)</t>
+    <rPh sb="0" eb="1">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米（福岡県産）、有機豆乳、有機アーモンド、有機メープルシロップ、有機ココナッツオイル、有機チョコチップ、有機ファットスプレッド、食塩、有機シナモンパウダー、有機ナツメグパウダー/ベーキングパウダー（アルミフリー）</t>
+    <rPh sb="9" eb="11">
+      <t>ユウキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ピザ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発芽玄米　生米ピザ
+(コーンとたまねぎ)</t>
+    <rPh sb="0" eb="4">
+      <t>ハツガゲンマイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナマゴメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米（福岡県産）、ヴィーガンチーズ（有機豆乳、有機ココナッツオイル、有機レモン果汁、食塩）、トマトソース（有機トマトペースト、玉ねぎ、ココナッツオイル、オレガノ、食塩、ニンニク）、とうもろこし、ココナッツオイル、たまねぎ、ピーマン、きび糖、酵母、食塩</t>
+    <rPh sb="18" eb="20">
+      <t>ユウキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄ノーラ</t>
+    <rPh sb="0" eb="1">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米ノーラ
+(プレーン)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米ノーラ
+(カカオ)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米ノーラ
+(おつまみ)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米(福岡県産)、有機レーズン、有機カシューナッツ、有機アーモンド、有機メープルシロップ、有機ひまわりの種、有機ココナッツシュガー、有機ココナッツオイル、食塩 
+(一部にアーモンド、カシューナッツを含む)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アーモンド、カシューナッツ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米(福岡県産)、有機アーモンド、有機クランベリー、有機カカオニブ、有機メープルシロップ、有機ココナッツシュガー、有機ココナッツオイル、有機ココア、食塩 
+(一部にアーモンドを含む)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米（福岡県産）、有機アーモンド、有機カシューナッツ、有機ドライいちじく、有機ココナッツオイル、塩麹、利尻粉末昆、有機ガーリックパウダー、有機ジンジャーパウダー、有機コリアンダーパウダー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>45g</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>40g</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※玄米は福岡県産の自然栽培米を使用。※食塩は天日湖塩を使用。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※玄米は自然栽培米を使用。
+※食塩は天日塩を使用。
+※塩麹のお米は自然栽培です。
+※粉末昆布は北海道産の天然利尻昆布の粉末を使用。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -528,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -543,6 +660,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -824,26 +944,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056D1AAA-C8E0-45CB-9771-31698DB73B58}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="26.625" customWidth="1"/>
-    <col min="4" max="4" width="33.375" customWidth="1"/>
+    <col min="3" max="3" width="26.59765625" customWidth="1"/>
+    <col min="4" max="4" width="33.3984375" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="13.8984375" customWidth="1"/>
     <col min="7" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="23.125" customWidth="1"/>
+    <col min="9" max="9" width="23.09765625" customWidth="1"/>
     <col min="10" max="10" width="58" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -873,7 +993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="93.75">
+    <row r="2" spans="1:10" ht="90">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -884,7 +1004,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -902,7 +1022,7 @@
         <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="100.5" customHeight="1">
@@ -935,10 +1055,10 @@
         <v>21</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="75">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="72">
       <c r="A4">
         <f t="shared" ref="A4:A10" si="0">A3+1</f>
         <v>1003</v>
@@ -968,10 +1088,10 @@
         <v>21</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="56.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="54">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>1004</v>
@@ -980,7 +1100,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>24</v>
@@ -1001,7 +1121,7 @@
         <v>27</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="76.5" customHeight="1">
@@ -1013,7 +1133,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>28</v>
@@ -1034,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="76.5" customHeight="1">
@@ -1046,7 +1166,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>33</v>
@@ -1067,10 +1187,10 @@
         <v>21</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="93.75">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="90">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>1007</v>
@@ -1079,7 +1199,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>29</v>
@@ -1100,10 +1220,10 @@
         <v>27</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="93.75">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="90">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>1008</v>
@@ -1112,7 +1232,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>30</v>
@@ -1133,10 +1253,10 @@
         <v>27</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="75">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="72">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>1009</v>
@@ -1145,7 +1265,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>31</v>
@@ -1166,10 +1286,10 @@
         <v>21</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="93.75">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="108">
       <c r="A11">
         <f>A10+1</f>
         <v>1010</v>
@@ -1178,10 +1298,10 @@
         <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>25</v>
@@ -1199,25 +1319,25 @@
         <v>21</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="56.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="54">
       <c r="A12">
         <f t="shared" ref="A12:A17" si="1">A11+1</f>
         <v>1011</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" s="1">
         <v>30</v>
@@ -1226,31 +1346,31 @@
         <v>10</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="75">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="72">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>1012</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" s="1">
         <v>30</v>
@@ -1259,28 +1379,28 @@
         <v>10</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="93.75">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="90">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>1013</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>25</v>
@@ -1289,19 +1409,19 @@
         <v>4</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="I14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="37.5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="36">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>1014</v>
@@ -1310,13 +1430,13 @@
         <v>7</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" s="1">
         <v>30</v>
@@ -1331,10 +1451,10 @@
         <v>21</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="93.75">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="72">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>1015</v>
@@ -1343,13 +1463,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F16" s="1">
         <v>30</v>
@@ -1364,10 +1484,10 @@
         <v>21</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="75">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="72">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>1016</v>
@@ -1376,13 +1496,13 @@
         <v>7</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="F17" s="1">
         <v>30</v>
@@ -1397,10 +1517,10 @@
         <v>21</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="131.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="108">
       <c r="A18">
         <v>1017</v>
       </c>
@@ -1408,10 +1528,10 @@
         <v>22</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>25</v>
@@ -1429,10 +1549,10 @@
         <v>21</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="93.75">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="90">
       <c r="A19">
         <v>1018</v>
       </c>
@@ -1440,10 +1560,10 @@
         <v>22</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>25</v>
@@ -1461,10 +1581,10 @@
         <v>21</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="93.75">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="72">
       <c r="A20">
         <v>1019</v>
       </c>
@@ -1472,10 +1592,10 @@
         <v>22</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>25</v>
@@ -1493,10 +1613,10 @@
         <v>21</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="112.5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="90">
       <c r="A21">
         <v>1020</v>
       </c>
@@ -1504,10 +1624,10 @@
         <v>22</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>25</v>
@@ -1525,7 +1645,167 @@
         <v>21</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="108">
+      <c r="A22">
+        <v>1021</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="144">
+      <c r="A23">
+        <v>1022</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="126">
+      <c r="A24">
+        <v>1023</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="1">
+        <v>40</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="108">
+      <c r="A25">
+        <v>1024</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="1">
+        <v>40</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="108">
+      <c r="A26">
+        <v>1025</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="1">
+        <v>40</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/PrintIngredientsList/bin/Debug/Database/商品.xlsx
+++ b/PrintIngredientsList/bin/Debug/Database/商品.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\桑原さんソフト\GitHub\成分表印刷\PrintIngredientsList_Layout\PrintIngredientsList\PrintIngredientsList\bin\Debug\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3014C797-EB78-4122-A98D-6100C40126FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7911EA7-B9A0-452E-AF49-11FE372ACFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2745" windowWidth="23775" windowHeight="12225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="25425" windowHeight="13560" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="焼菓子" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="マフィン" sheetId="4" r:id="rId3"/>
     <sheet name="ラスク" sheetId="6" r:id="rId4"/>
     <sheet name="ケーキ" sheetId="7" r:id="rId5"/>
+    <sheet name="玄ノーラ" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="82">
-  <si>
-    <t>分類</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="87">
   <si>
     <t>名称</t>
   </si>
@@ -53,7 +51,7 @@
   </si>
   <si>
     <t>アレルギー</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>製造者</t>
@@ -62,95 +60,77 @@
     <t>欄外</t>
   </si>
   <si>
-    <t>焼菓子</t>
-    <rPh sb="0" eb="3">
-      <t>ヤキガシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ココナッツスティック</t>
   </si>
   <si>
     <t>3本</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>常温</t>
     <rPh sb="0" eb="2">
       <t>ジョウオン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>無し</t>
     <rPh sb="0" eb="1">
       <t>ナ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ラングドシャ</t>
   </si>
   <si>
     <t>有機ファットスプレッド（デンマーク）、玄米、きび糖、豆乳ヨーグルト、有機アーモンド、有機片栗粉、高きび、有機ベルガモット、有機バニラエクストラクト</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>2枚</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>アーモンド</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>賞味期限</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>原材料</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>本店</t>
     <rPh sb="0" eb="2">
       <t>ホンテン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>マフィン</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>生米パン</t>
-    <rPh sb="0" eb="2">
-      <t>ナマゴメ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄米(福岡県産)、胚芽米(福岡県産)、有機ココナッツオイル、きび糖、酵母、食塩</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>1個</t>
     <rPh sb="1" eb="2">
       <t>コ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄米(福岡県産)、たまねぎ、有機ココナッツオイル、きび糖、白神こだま酵母、食塩、こしょう</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄米（福岡県産）、有機豆乳、有機アーモンド、有機ココナッツオイル、有機メープルシロップ、黒豆、有機抹茶、食塩 / ベーキングパウダー（アルミフリー）</t>
     <rPh sb="9" eb="11">
       <t>ユウキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄米(福岡県産)、有機豆乳、有機ｱｰﾓﾝﾄﾞ、有機ﾒｰﾌﾟﾙｼﾛｯﾌﾟ、有機ｵﾚﾝｼﾞｽﾌﾟﾚｯﾄﾞ、有機ｺｺﾅｯﾂｵｲﾙ、有機ﾍﾞﾙｶﾞﾓｯﾄ、食塩 、有機ﾚﾓﾝ、きび糖
@@ -158,19 +138,19 @@
     <rPh sb="9" eb="11">
       <t>ユウキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄米(福岡県産)、有機豆乳、有機アーモンド、有機ココナッツオイル、ブルーベリー、きび糖、食塩
 / ﾍﾞｰｷﾝｸﾞﾊﾟｳﾀﾞｰ(ｱﾙﾐﾌﾘｰ)</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>大豆、アーモンド</t>
     <rPh sb="0" eb="2">
       <t>ダイズ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄米(福岡県産)、赤ほうれん草、有機ココナッツオイル、きび糖、白神こだま酵母、食塩</t>
@@ -180,101 +160,93 @@
     <rPh sb="14" eb="15">
       <t>ソウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄米（福岡県産）、有機豆乳、重ね煮（コリンキー、玉ねぎ、人参、えのき）、有機アーモンド、有機ココナッツシュガー、有機ココナッツオイル、食塩 / ﾍﾞｰｷﾝｸﾞﾊﾟｳﾀﾞｰ（ｱﾙﾐﾌﾘｰ）</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ラスク</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄米（福岡県産）、有機豆乳、有機ココナッツオイル、きび糖、食塩/ベーキングパウダー（アルミフリー）</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve"> 玄米（福岡県産）、有機豆乳、有機ココナッツオイル、きび糖、有機ブラックココア、食塩/ベーキングパウダー（アルミフリー）</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>大豆</t>
     <rPh sb="0" eb="2">
       <t>ダイズ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ケーキ</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>豆乳ヨーグルト（北海道産）、玄米、豆乳、有機ココナッツオイル、有機メープルシロップ、有機ｵﾚﾝｼﾞｽﾌﾟﾚｯﾄﾞ、有機ｺｺﾅｯﾂﾐﾙｸ、白味噌、酒粕、有機ﾚﾓﾝ果汁、有機ｺｺﾅｯﾂｼｭｶﾞｰ、食塩</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ヴィーガンベイクドチーズケーキ</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>冷蔵</t>
     <rPh sb="0" eb="2">
       <t>レイゾウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>50g</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄米(福岡県産)、有機ココナッツオイル、有機ココナッツシュガー、食塩</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄米(福岡県産)、有機ココナッツシュガー、有機ココナッツオイル、有機ココア、有機コンスターチ、有機ココナッツMCTオイル、有機カカオニブ、食塩</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄米(福岡県産)、有機ココナッツオイル、有機ココナッツシュガー、有機片栗粉、有機黒ごま(宮崎県産)、有機ジンジャーパウダ、食塩</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>発芽玄米クッキー
 (プレーン)</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>発芽玄米クッキー
 (カカオ)</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>発芽玄米クッキー
 (ジンジャーセサミ)</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>1枚</t>
     <rPh sb="1" eb="2">
       <t>マイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>切れはしラスク
 (プレーン)</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>切れはしラスク
 (ココア)</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>発芽玄米 生米パン
@@ -288,7 +260,7 @@
     <rPh sb="5" eb="7">
       <t>ナマゴメ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>発芽玄米 生米パン
@@ -302,7 +274,7 @@
     <rPh sb="5" eb="7">
       <t>ナマゴメ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>発芽玄米 生米パン
@@ -322,7 +294,7 @@
     <rPh sb="16" eb="17">
       <t>ソウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄マフィン
@@ -330,7 +302,7 @@
     <rPh sb="0" eb="1">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄マフィン
@@ -338,7 +310,7 @@
     <rPh sb="0" eb="1">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄マフィン
@@ -346,7 +318,7 @@
     <rPh sb="0" eb="1">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄マフィン
@@ -363,31 +335,31 @@
     <rPh sb="12" eb="13">
       <t>ニ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>※玄米は福岡県産の自然栽培米を使用。
 ※食塩は天日湖塩を使用。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>※玄米は福岡県産の自然栽培米を使用。
 ※野菜は自然栽培のものを使用。
 ※食塩は天日湖塩を使用。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>※玄米、胚芽米は福岡県産の自然栽培米を使用。
 ※食塩は天日湖塩を使用。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>※玄米は福岡県産の自然栽培米を使用。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄米（福岡県産）、有機メープルシロップ、有機ココナッツオイル、有機ココナッツファイン、有機片栗粉、有機ココナッツフラワー、有機ココナッツシュガー、全粒ソルガム、食塩</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄マフィン
@@ -395,7 +367,7 @@
     <rPh sb="0" eb="1">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄マフィン
@@ -403,7 +375,7 @@
     <rPh sb="0" eb="1">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄マフィン
@@ -411,11 +383,11 @@
     <rPh sb="0" eb="1">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄米（福岡県産）、有機豆乳、有機メープルシロップ、有機ココナッツオイル、有機コーヒー、有機カカオニブ、食塩 / ベーキングパウダー（アルミフリー）</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄マフィン
@@ -423,28 +395,28 @@
     <rPh sb="0" eb="1">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄米（福岡県産）、有機豆乳、有機アーモンド、有機メープルシロップ、有機ココナッツオイル、有機オレンジスプレッド、有機カシススプレッド、食塩　/ベーキングパウダー（アルミフリー）</t>
     <rPh sb="9" eb="11">
       <t>ユウキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>りんご（青森県産）、玄米、有機豆乳、有機アーモンド、有機メープルシロップ、有機ココナッツオイル、食塩、有機シナモンパウダー　/　ベーキングパウダー（アルミフリー）</t>
     <rPh sb="13" eb="15">
       <t>ユウキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>玄米（福岡県産）、有機豆乳、有機アーモンド、有機メープルシロップ、有機ココナッツオイル、有機あまおうコンポート（有機あまおう、きび糖、レモン果汁）食塩、有機ブラックペッパー　/ ベーキングパウダー（アルミフリー）</t>
     <rPh sb="9" eb="11">
       <t>ユウキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>熱量</t>
@@ -478,35 +450,79 @@
   </si>
   <si>
     <t>玄米クロッカン</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>有機アーモンド（アメリカ）、有機ヘーゼルナッツ、有機ココナッツシュガー、ひよこ豆、玄米、有機コーンスターチ、有機バニラエクストラクト</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>2個</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玄米ノーラ
+(プレーン)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玄米(福岡県産)、有機レーズン、有機カシューナッツ、有機アーモンド、有機メープルシロップ、有機ひまわりの種、有機ココナッツシュガー、有機ココナッツオイル、食塩 
+(一部にアーモンド、カシューナッツを含む)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>45g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アーモンド、カシューナッツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玄米ノーラ
+(カカオ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玄米(福岡県産)、有機アーモンド、有機クランベリー、有機カカオニブ、有機メープルシロップ、有機ココナッツシュガー、有機ココナッツオイル、有機ココア、食塩 
+(一部にアーモンドを含む)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※玄米は福岡県産の自然栽培米を使用。※食塩は天日湖塩を使用。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玄米ノーラ
+(おつまみ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玄米（福岡県産）、有機アーモンド、有機カシューナッツ、有機ドライいちじく、有機ココナッツオイル、塩麹、利尻粉末昆、有機ガーリックパウダー、有機ジンジャーパウダー、有機コリアンダーパウダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※玄米は自然栽培米を使用。
+※食塩は天日塩を使用。
+※塩麹のお米は自然栽培です。
+※粉末昆布は北海道産の天然利尻昆布の粉末を使用。</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -564,15 +580,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -853,1297 +871,1426 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056D1AAA-C8E0-45CB-9771-31698DB73B58}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="26.625" customWidth="1"/>
-    <col min="4" max="4" width="33.375" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
-    <col min="7" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="23.125" customWidth="1"/>
-    <col min="10" max="10" width="58" customWidth="1"/>
+    <col min="2" max="2" width="26.625" customWidth="1"/>
+    <col min="3" max="3" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="23.125" customWidth="1"/>
+    <col min="9" max="9" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="93.75">
+      <c r="J1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="93.75">
       <c r="A2">
         <v>1001</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1">
-        <v>30</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="100.5" customHeight="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="100.5" customHeight="1">
       <c r="A3">
         <v>1002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="1">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1">
-        <v>30</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="75">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="75">
       <c r="A4">
         <v>1003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="1">
+        <v>73</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="1">
         <v>30</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="37.5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="37.5">
       <c r="A5">
         <v>1014</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="E5" s="1">
         <v>30</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="93.75">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="93.75">
       <c r="A6">
         <v>1015</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="B6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="1">
         <v>30</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="75">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="75">
       <c r="A7">
         <v>1016</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="B7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="1">
         <v>30</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD5B5A1-257C-47A8-A3B6-5EDA470601F6}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:J4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="26.625" customWidth="1"/>
-    <col min="4" max="4" width="33.375" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
-    <col min="7" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="23.125" customWidth="1"/>
-    <col min="10" max="10" width="58" customWidth="1"/>
+    <col min="2" max="2" width="26.625" customWidth="1"/>
+    <col min="3" max="3" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="23.125" customWidth="1"/>
+    <col min="9" max="9" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="56.25">
+      <c r="J1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="56.25">
       <c r="A2">
         <v>1004</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="1">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1">
         <v>2</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="76.5" customHeight="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="76.5" customHeight="1">
       <c r="A3">
         <v>1005</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
+      <c r="B3" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1">
         <v>2</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="76.5" customHeight="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="76.5" customHeight="1">
       <c r="A4">
         <v>1006</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
+      <c r="B4" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>57</v>
+      <c r="J4" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617ED746-FDCE-4A6D-98AA-19154EA655CA}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD11"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="26.625" customWidth="1"/>
-    <col min="4" max="4" width="33.375" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
-    <col min="7" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="23.125" customWidth="1"/>
-    <col min="10" max="10" width="58" customWidth="1"/>
+    <col min="2" max="2" width="26.625" customWidth="1"/>
+    <col min="3" max="3" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="23.125" customWidth="1"/>
+    <col min="9" max="9" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="93.75">
+      <c r="J1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="93.75">
       <c r="A2">
         <v>1007</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1">
         <v>2</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="93.75">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="93.75">
       <c r="A3">
         <v>1008</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1">
         <v>2</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="75">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="75">
       <c r="A4">
         <v>1009</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
+      <c r="B4" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="1">
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1">
         <v>2</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="93.75">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="93.75">
       <c r="A5">
         <v>1010</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
+      <c r="B5" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1">
         <v>2</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="131.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="131.25">
       <c r="A6">
         <v>1017</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
+      <c r="B6" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="K6" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="93.75">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="93.75">
       <c r="A7">
         <v>1018</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
+      <c r="B7" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="1">
+        <v>61</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1">
         <v>2</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="93.75">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="93.75">
       <c r="A8">
         <v>1019</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
+      <c r="B8" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="1">
+        <v>58</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1">
         <v>2</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="112.5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="112.5">
       <c r="A9">
         <v>1020</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
+      <c r="B9" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="1">
+        <v>60</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1">
         <v>2</v>
       </c>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCC6BD5-D7E8-4988-985B-B9A0CAE8C150}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD11"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="26.625" customWidth="1"/>
-    <col min="4" max="4" width="33.375" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
-    <col min="7" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="23.125" customWidth="1"/>
-    <col min="10" max="10" width="58" customWidth="1"/>
+    <col min="2" max="2" width="26.625" customWidth="1"/>
+    <col min="3" max="3" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="23.125" customWidth="1"/>
+    <col min="9" max="9" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="56.25">
+      <c r="J1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="56.25">
       <c r="A2">
         <v>1011</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>31</v>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="1">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="1">
         <v>30</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="75">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="75">
       <c r="A3">
         <v>1012</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>31</v>
+      <c r="B3" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="E3" s="1">
         <v>30</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486C1957-759C-4761-8D6D-756DF243CF00}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="26.625" customWidth="1"/>
-    <col min="4" max="4" width="33.375" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
-    <col min="7" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="23.125" customWidth="1"/>
-    <col min="10" max="10" width="58" customWidth="1"/>
+    <col min="2" max="2" width="26.625" customWidth="1"/>
+    <col min="3" max="3" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="23.125" customWidth="1"/>
+    <col min="9" max="9" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="93.75">
+      <c r="J1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="93.75">
       <c r="A2">
         <v>1013</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>35</v>
+      <c r="B2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089A5BE2-7109-42BB-8B39-0967B0C52C83}">
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="26.625" customWidth="1"/>
+    <col min="3" max="3" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="23.125" customWidth="1"/>
+    <col min="9" max="9" width="58" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="131.25">
+      <c r="A2">
+        <v>1023</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="1">
-        <v>4</v>
+        <v>77</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="1">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>34</v>
+        <v>79</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="112.5">
+      <c r="A3">
+        <v>1024</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="1">
+        <v>40</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="112.5">
+      <c r="A4">
+        <v>1025</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="1">
+        <v>40</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PrintIngredientsList/bin/Debug/Database/商品.xlsx
+++ b/PrintIngredientsList/bin/Debug/Database/商品.xlsx
@@ -5,20 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\桑原さんソフト\GitHub\成分表印刷\PrintIngredientsList_Layout\PrintIngredientsList\PrintIngredientsList\bin\Debug\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDocuments\(00_MyDevelopments)\01_最新モジュール\PrintIngredientsList_Module_Layout\PrintIngredientsList\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7911EA7-B9A0-452E-AF49-11FE372ACFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BFC11A-3D52-4ACB-9BBA-EB9D79E79BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="25425" windowHeight="13560" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16776" tabRatio="864" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="焼菓子" sheetId="2" r:id="rId1"/>
     <sheet name="生米パン" sheetId="3" r:id="rId2"/>
-    <sheet name="マフィン" sheetId="4" r:id="rId3"/>
-    <sheet name="ラスク" sheetId="6" r:id="rId4"/>
-    <sheet name="ケーキ" sheetId="7" r:id="rId5"/>
-    <sheet name="玄ノーラ" sheetId="8" r:id="rId6"/>
+    <sheet name="ピザ" sheetId="10" r:id="rId3"/>
+    <sheet name="マフィン" sheetId="4" r:id="rId4"/>
+    <sheet name="ラスク" sheetId="6" r:id="rId5"/>
+    <sheet name="ケーキ" sheetId="7" r:id="rId6"/>
+    <sheet name="玄ノーラ" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="104">
+  <si>
+    <t>分類</t>
+  </si>
   <si>
     <t>名称</t>
   </si>
@@ -51,7 +55,7 @@
   </si>
   <si>
     <t>アレルギー</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>製造者</t>
@@ -64,73 +68,73 @@
   </si>
   <si>
     <t>3本</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>常温</t>
     <rPh sb="0" eb="2">
       <t>ジョウオン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>無し</t>
     <rPh sb="0" eb="1">
       <t>ナ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ラングドシャ</t>
   </si>
   <si>
     <t>有機ファットスプレッド（デンマーク）、玄米、きび糖、豆乳ヨーグルト、有機アーモンド、有機片栗粉、高きび、有機ベルガモット、有機バニラエクストラクト</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2枚</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>アーモンド</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>賞味期限</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>原材料</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>本店</t>
     <rPh sb="0" eb="2">
       <t>ホンテン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米(福岡県産)、胚芽米(福岡県産)、有機ココナッツオイル、きび糖、酵母、食塩</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1個</t>
     <rPh sb="1" eb="2">
       <t>コ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米(福岡県産)、たまねぎ、有機ココナッツオイル、きび糖、白神こだま酵母、食塩、こしょう</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米（福岡県産）、有機豆乳、有機アーモンド、有機ココナッツオイル、有機メープルシロップ、黒豆、有機抹茶、食塩 / ベーキングパウダー（アルミフリー）</t>
     <rPh sb="9" eb="11">
       <t>ユウキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米(福岡県産)、有機豆乳、有機ｱｰﾓﾝﾄﾞ、有機ﾒｰﾌﾟﾙｼﾛｯﾌﾟ、有機ｵﾚﾝｼﾞｽﾌﾟﾚｯﾄﾞ、有機ｺｺﾅｯﾂｵｲﾙ、有機ﾍﾞﾙｶﾞﾓｯﾄ、食塩 、有機ﾚﾓﾝ、きび糖
@@ -138,19 +142,19 @@
     <rPh sb="9" eb="11">
       <t>ユウキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米(福岡県産)、有機豆乳、有機アーモンド、有機ココナッツオイル、ブルーベリー、きび糖、食塩
 / ﾍﾞｰｷﾝｸﾞﾊﾟｳﾀﾞｰ(ｱﾙﾐﾌﾘｰ)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>大豆、アーモンド</t>
     <rPh sb="0" eb="2">
       <t>ダイズ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米(福岡県産)、赤ほうれん草、有機ココナッツオイル、きび糖、白神こだま酵母、食塩</t>
@@ -160,93 +164,93 @@
     <rPh sb="14" eb="15">
       <t>ソウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>玄米（福岡県産）、有機豆乳、重ね煮（コリンキー、玉ねぎ、人参、えのき）、有機アーモンド、有機ココナッツシュガー、有機ココナッツオイル、食塩 / ﾍﾞｰｷﾝｸﾞﾊﾟｳﾀﾞｰ（ｱﾙﾐﾌﾘｰ）</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米（福岡県産）、有機豆乳、有機ココナッツオイル、きび糖、食塩/ベーキングパウダー（アルミフリー）</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t xml:space="preserve"> 玄米（福岡県産）、有機豆乳、有機ココナッツオイル、きび糖、有機ブラックココア、食塩/ベーキングパウダー（アルミフリー）</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>大豆</t>
     <rPh sb="0" eb="2">
       <t>ダイズ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ケーキ</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>豆乳ヨーグルト（北海道産）、玄米、豆乳、有機ココナッツオイル、有機メープルシロップ、有機ｵﾚﾝｼﾞｽﾌﾟﾚｯﾄﾞ、有機ｺｺﾅｯﾂﾐﾙｸ、白味噌、酒粕、有機ﾚﾓﾝ果汁、有機ｺｺﾅｯﾂｼｭｶﾞｰ、食塩</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ヴィーガンベイクドチーズケーキ</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>冷蔵</t>
     <rPh sb="0" eb="2">
       <t>レイゾウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>50g</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米(福岡県産)、有機ココナッツオイル、有機ココナッツシュガー、食塩</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米(福岡県産)、有機ココナッツシュガー、有機ココナッツオイル、有機ココア、有機コンスターチ、有機ココナッツMCTオイル、有機カカオニブ、食塩</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米(福岡県産)、有機ココナッツオイル、有機ココナッツシュガー、有機片栗粉、有機黒ごま(宮崎県産)、有機ジンジャーパウダ、食塩</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>発芽玄米クッキー
 (プレーン)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>発芽玄米クッキー
 (カカオ)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>発芽玄米クッキー
 (ジンジャーセサミ)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1枚</t>
     <rPh sb="1" eb="2">
       <t>マイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>切れはしラスク
 (プレーン)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>切れはしラスク
 (ココア)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>発芽玄米 生米パン
@@ -260,7 +264,7 @@
     <rPh sb="5" eb="7">
       <t>ナマゴメ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>発芽玄米 生米パン
@@ -274,7 +278,7 @@
     <rPh sb="5" eb="7">
       <t>ナマゴメ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>発芽玄米 生米パン
@@ -294,7 +298,7 @@
     <rPh sb="16" eb="17">
       <t>ソウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄マフィン
@@ -302,7 +306,7 @@
     <rPh sb="0" eb="1">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄マフィン
@@ -310,7 +314,7 @@
     <rPh sb="0" eb="1">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄マフィン
@@ -318,7 +322,7 @@
     <rPh sb="0" eb="1">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄マフィン
@@ -335,31 +339,31 @@
     <rPh sb="12" eb="13">
       <t>ニ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>※玄米は福岡県産の自然栽培米を使用。
 ※食塩は天日湖塩を使用。</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>※玄米は福岡県産の自然栽培米を使用。
 ※野菜は自然栽培のものを使用。
 ※食塩は天日湖塩を使用。</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>※玄米、胚芽米は福岡県産の自然栽培米を使用。
 ※食塩は天日湖塩を使用。</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>※玄米は福岡県産の自然栽培米を使用。</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米（福岡県産）、有機メープルシロップ、有機ココナッツオイル、有機ココナッツファイン、有機片栗粉、有機ココナッツフラワー、有機ココナッツシュガー、全粒ソルガム、食塩</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄マフィン
@@ -367,7 +371,7 @@
     <rPh sb="0" eb="1">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄マフィン
@@ -375,7 +379,7 @@
     <rPh sb="0" eb="1">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄マフィン
@@ -383,11 +387,11 @@
     <rPh sb="0" eb="1">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米（福岡県産）、有機豆乳、有機メープルシロップ、有機ココナッツオイル、有機コーヒー、有機カカオニブ、食塩 / ベーキングパウダー（アルミフリー）</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄マフィン
@@ -395,28 +399,28 @@
     <rPh sb="0" eb="1">
       <t>ゲン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米（福岡県産）、有機豆乳、有機アーモンド、有機メープルシロップ、有機ココナッツオイル、有機オレンジスプレッド、有機カシススプレッド、食塩　/ベーキングパウダー（アルミフリー）</t>
     <rPh sb="9" eb="11">
       <t>ユウキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>りんご（青森県産）、玄米、有機豆乳、有機アーモンド、有機メープルシロップ、有機ココナッツオイル、食塩、有機シナモンパウダー　/　ベーキングパウダー（アルミフリー）</t>
     <rPh sb="13" eb="15">
       <t>ユウキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米（福岡県産）、有機豆乳、有機アーモンド、有機メープルシロップ、有機ココナッツオイル、有機あまおうコンポート（有機あまおう、きび糖、レモン果汁）食塩、有機ブラックペッパー　/ ベーキングパウダー（アルミフリー）</t>
     <rPh sb="9" eb="11">
       <t>ユウキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>熱量</t>
@@ -450,79 +454,194 @@
   </si>
   <si>
     <t>玄米クロッカン</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>有機アーモンド（アメリカ）、有機ヘーゼルナッツ、有機ココナッツシュガー、ひよこ豆、玄米、有機コーンスターチ、有機バニラエクストラクト</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2個</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米（福岡県産）、有機豆乳、重ね煮（コリンキー、玉ねぎ、人参、えのき）、有機アーモンド、有機ココナッツシュガー、有機ココナッツオイル、さつまいも、食塩 / ﾍﾞｰｷﾝｸﾞﾊﾟｳﾀﾞｰ（ｱﾙﾐﾌﾘｰ）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄マフィン
+(チョコチップ)</t>
+    <rPh sb="0" eb="1">
+      <t>ゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米（福岡県産）、有機豆乳、有機アーモンド、有機メープルシロップ、有機ココナッツオイル、有機チョコチップ、有機ファットスプレッド、食塩、有機シナモンパウダー、有機ナツメグパウダー/ベーキングパウダー（アルミフリー）</t>
+    <rPh sb="9" eb="11">
+      <t>ユウキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１個</t>
+    <rPh sb="1" eb="2">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米ノーラ
 (プレーン)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米(福岡県産)、有機レーズン、有機カシューナッツ、有機アーモンド、有機メープルシロップ、有機ひまわりの種、有機ココナッツシュガー、有機ココナッツオイル、食塩 
 (一部にアーモンド、カシューナッツを含む)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>45g</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>アーモンド、カシューナッツ</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※玄米は福岡県産の自然栽培米を使用。※食塩は天日湖塩を使用。</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米ノーラ
 (カカオ)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米(福岡県産)、有機アーモンド、有機クランベリー、有機カカオニブ、有機メープルシロップ、有機ココナッツシュガー、有機ココナッツオイル、有機ココア、食塩 
 (一部にアーモンドを含む)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>40g</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※玄米は福岡県産の自然栽培米を使用。※食塩は天日湖塩を使用。</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米ノーラ
 (おつまみ)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>玄米（福岡県産）、有機アーモンド、有機カシューナッツ、有機ドライいちじく、有機ココナッツオイル、塩麹、利尻粉末昆、有機ガーリックパウダー、有機ジンジャーパウダー、有機コリアンダーパウダー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※玄米は自然栽培米を使用。
-※食塩は天日塩を使用。
-※塩麹のお米は自然栽培です。
-※粉末昆布は北海道産の天然利尻昆布の粉末を使用。</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※玄米は自然栽培米を使用。※食塩は天日塩を使用。※塩麹のお米は自然栽培です。※粉末昆布は北海道産の天然利尻昆布の粉末を使用。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発芽玄米 生米パン
+(クランベリーとアーモンド)</t>
+    <rPh sb="0" eb="2">
+      <t>ハツガ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲンマイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナマゴメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米(福岡県産)、有機ココナッツオイル、有機クランベリー、有機アーモンド、きび糖、酵母、食塩</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発芽玄米　生米ピザ
+(コーンとたまねぎ)</t>
+    <rPh sb="0" eb="4">
+      <t>ハツガゲンマイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナマゴメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米（福岡県産）、ヴィーガンチーズ（有機豆乳、有機ココナッツオイル、有機レモン果汁、食塩）、トマトソース（有機トマトペースト、玉ねぎ、ココナッツオイル、オレガノ、食塩、ニンニク）、とうもろこし、ココナッツオイル、たまねぎ、ピーマン、きび糖、酵母、食塩</t>
+    <rPh sb="18" eb="20">
+      <t>ユウキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>冷凍</t>
+    <rPh sb="0" eb="2">
+      <t>レイトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄米(福岡県産)、有機レーズン、有機ココナッツオイル、きび糖、白神こだま酵母、食塩</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発芽玄米 生米パン
+(レーズン)</t>
+    <rPh sb="0" eb="2">
+      <t>ハツガ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲンマイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナマゴメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アーモンド、クランベリー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ケーク オ フリュイ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>有機豆乳（国産）、玄米（福岡県産）、有機レーズン、有機ココナッツオイル、有機アーモンド、全粒ソルガム粉、有機ラム酒、有機クランベリー、有機あんず、きび糖、有機いちじく、有機メープルシロップ、有機片栗粉、食塩、有機シナモンパウダー　/ ベーキングパウダー（アルミフリー）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>島バナナのココアパウンド</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>島バナナ（鹿児島県産）、国産有機豆乳、玄米（福岡県産）、有機レーズン、有機ココナッツオイル、有機アーモンド、全粒ソルガム粉、有機メープルシロップ、有機ココア、有機片栗粉、有機ラム酒、食塩、有機シナモンパウダー　/ ベーキングパウダー（アルミフリー）</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -572,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -580,8 +699,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -590,6 +710,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -871,97 +994,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{056D1AAA-C8E0-45CB-9771-31698DB73B58}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="26.625" customWidth="1"/>
-    <col min="3" max="3" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="23.125" customWidth="1"/>
-    <col min="9" max="9" width="58" customWidth="1"/>
+    <col min="3" max="3" width="26.59765625" customWidth="1"/>
+    <col min="4" max="4" width="33.3984375" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="13.8984375" customWidth="1"/>
+    <col min="7" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="23.09765625" customWidth="1"/>
+    <col min="10" max="10" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="6" t="s">
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="93.75">
+      <c r="O1" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="90">
       <c r="A2">
         <v>1001</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1">
+      <c r="D2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1">
         <v>30</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>69</v>
@@ -975,37 +1099,38 @@
       <c r="N2" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="100.5" customHeight="1">
+      <c r="O2" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="100.5" customHeight="1">
       <c r="A3">
         <v>1002</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1">
         <v>30</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>69</v>
@@ -1019,37 +1144,38 @@
       <c r="N3" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="75">
+      <c r="O3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="72">
       <c r="A4">
         <v>1003</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="1">
         <v>30</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>69</v>
@@ -1063,37 +1189,38 @@
       <c r="N4" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="37.5">
+      <c r="O4" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="36">
       <c r="A5">
         <v>1014</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="B5" s="1"/>
+      <c r="C5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="1">
         <v>30</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>16</v>
+      <c r="H5" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>69</v>
@@ -1107,37 +1234,38 @@
       <c r="N5" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="93.75">
+      <c r="O5" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="72">
       <c r="A6">
         <v>1015</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="B6" s="1"/>
+      <c r="C6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="1">
         <v>30</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>16</v>
+      <c r="H6" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>69</v>
@@ -1151,37 +1279,37 @@
       <c r="N6" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="75">
+      <c r="O6" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="72">
       <c r="A7">
         <v>1016</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="1">
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="1">
         <v>30</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>16</v>
+      <c r="H7" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>69</v>
@@ -1195,106 +1323,111 @@
       <c r="N7" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="O7" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DD5B5A1-257C-47A8-A3B6-5EDA470601F6}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="26.625" customWidth="1"/>
-    <col min="3" max="3" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="23.125" customWidth="1"/>
-    <col min="9" max="9" width="58" customWidth="1"/>
+    <col min="3" max="3" width="26.59765625" customWidth="1"/>
+    <col min="4" max="4" width="33.3984375" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="13.8984375" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="23.296875" customWidth="1"/>
+    <col min="9" max="9" width="23.09765625" customWidth="1"/>
+    <col min="10" max="10" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="54">
+      <c r="A2">
+        <v>1500</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1">
         <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="56.25">
-      <c r="A2">
-        <v>1004</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>69</v>
@@ -1308,37 +1441,38 @@
       <c r="N2" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="76.5" customHeight="1">
+      <c r="O2" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="76.5" customHeight="1">
       <c r="A3">
-        <v>1005</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>1501</v>
+      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>69</v>
@@ -1352,37 +1486,38 @@
       <c r="N3" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="76.5" customHeight="1">
+      <c r="O3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="76.5" customHeight="1">
       <c r="A4">
-        <v>1006</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>1502</v>
+      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1">
+        <v>46</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1">
         <v>2</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>69</v>
@@ -1396,527 +1531,275 @@
       <c r="N4" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="O4" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="54">
+      <c r="A5">
+        <v>1503</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="54">
+      <c r="A6">
+        <v>1504</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617ED746-FDCE-4A6D-98AA-19154EA655CA}">
-  <dimension ref="A1:N9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09734631-23FD-447E-B798-9C34C6642630}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="26.625" customWidth="1"/>
-    <col min="3" max="3" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="23.125" customWidth="1"/>
-    <col min="9" max="9" width="58" customWidth="1"/>
+    <col min="3" max="3" width="26.59765625" customWidth="1"/>
+    <col min="4" max="4" width="33.3984375" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="13.8984375" customWidth="1"/>
+    <col min="7" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="23.09765625" customWidth="1"/>
+    <col min="10" max="10" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="6" t="s">
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="93.75">
+      <c r="O1" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="144">
       <c r="A2">
-        <v>1007</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>2001</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1">
+        <v>60</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>96</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="93.75">
-      <c r="A3">
-        <v>1008</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="75">
-      <c r="A4">
-        <v>1009</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="93.75">
-      <c r="A5">
-        <v>1010</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="131.25">
-      <c r="A6">
-        <v>1017</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="93.75">
-      <c r="A7">
-        <v>1018</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="93.75">
-      <c r="A8">
-        <v>1019</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="112.5">
-      <c r="A9">
-        <v>1020</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCC6BD5-D7E8-4988-985B-B9A0CAE8C150}">
-  <dimension ref="A1:N3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617ED746-FDCE-4A6D-98AA-19154EA655CA}">
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="26.625" customWidth="1"/>
-    <col min="3" max="3" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="23.125" customWidth="1"/>
-    <col min="9" max="9" width="58" customWidth="1"/>
+    <col min="3" max="3" width="26.59765625" customWidth="1"/>
+    <col min="4" max="4" width="33.3984375" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="13.8984375" customWidth="1"/>
+    <col min="7" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="23.09765625" customWidth="1"/>
+    <col min="10" max="10" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="90">
+      <c r="A2">
+        <v>3001</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="56.25">
-      <c r="A2">
-        <v>1011</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="1">
-        <v>30</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>69</v>
@@ -1930,37 +1813,38 @@
       <c r="N2" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="75">
+      <c r="O2" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="90">
       <c r="A3">
-        <v>1012</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>3002</v>
+      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="1">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>48</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>69</v>
@@ -1974,219 +1858,556 @@
       <c r="N3" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="O3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="72">
+      <c r="A4">
+        <v>3003</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="108">
+      <c r="A5">
+        <v>3004</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="108">
+      <c r="A6">
+        <v>3005</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="90">
+      <c r="A7">
+        <v>3006</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="72">
+      <c r="A8">
+        <v>3007</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="90">
+      <c r="A9">
+        <v>3008</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="108">
+      <c r="A10">
+        <v>3009</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486C1957-759C-4761-8D6D-756DF243CF00}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCC6BD5-D7E8-4988-985B-B9A0CAE8C150}">
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="26.625" customWidth="1"/>
-    <col min="3" max="3" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="23.125" customWidth="1"/>
-    <col min="9" max="9" width="58" customWidth="1"/>
+    <col min="3" max="3" width="26.59765625" customWidth="1"/>
+    <col min="4" max="4" width="33.3984375" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="13.8984375" customWidth="1"/>
+    <col min="7" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="23.09765625" customWidth="1"/>
+    <col min="10" max="10" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="6" t="s">
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="93.75">
+      <c r="O1" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="54">
       <c r="A2">
-        <v>1013</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>3500</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1">
         <v>30</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>72</v>
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="72">
+      <c r="A3">
+        <v>3501</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="1">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089A5BE2-7109-42BB-8B39-0967B0C52C83}">
-  <dimension ref="A1:N4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486C1957-759C-4761-8D6D-756DF243CF00}">
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="26.625" customWidth="1"/>
-    <col min="3" max="3" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="23.125" customWidth="1"/>
-    <col min="9" max="9" width="58" customWidth="1"/>
+    <col min="3" max="3" width="26.59765625" customWidth="1"/>
+    <col min="4" max="4" width="33.3984375" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="13.8984375" customWidth="1"/>
+    <col min="7" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="23.09765625" customWidth="1"/>
+    <col min="10" max="10" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="6" t="s">
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="131.25">
+      <c r="O1" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="90">
       <c r="A2">
-        <v>1023</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>76</v>
+        <v>4000</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="1">
-        <v>40</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>68</v>
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>69</v>
@@ -2200,97 +2421,255 @@
       <c r="N2" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="112.5">
+      <c r="O2" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="144">
       <c r="A3">
-        <v>1024</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="5" t="s">
+        <v>4001</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="126">
+      <c r="A4">
+        <v>4002</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B6D177-F019-4D6C-AE35-7B9F8FDEE3A5}">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="3" max="3" width="14.8984375" customWidth="1"/>
+    <col min="4" max="4" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="8" max="8" width="14.8984375" customWidth="1"/>
+    <col min="9" max="9" width="16.3984375" customWidth="1"/>
+    <col min="10" max="10" width="32.3984375" customWidth="1"/>
+    <col min="11" max="11" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="150.6" customHeight="1">
+      <c r="A2" s="1">
+        <v>4500</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="1">
         <v>40</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" ht="108">
+      <c r="A3" s="1">
+        <v>4501</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="1">
+        <v>40</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="112.5">
-      <c r="A4">
-        <v>1025</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>84</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" ht="144.6" customHeight="1">
+      <c r="A4" s="1">
+        <v>4502</v>
+      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="1">
+        <v>89</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="1">
         <v>40</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>